--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cégep\VI Hiver 2019\Android\Projet\Remise_sprint_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\533\Documents\ProjetAndroid\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
   <si>
     <t>1</t>
   </si>
@@ -440,7 +441,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E7" sqref="A3:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,4 +689,101 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="122.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -696,7 +696,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
   <si>
     <t>1</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>Je dois pouvoir entrer les ingrédients ainsi que les étapes de ma recette</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur, je souhaite pouvoir visionner la photo de ma recette dans la liste de celles-ci</t>
+  </si>
+  <si>
+    <t>utilisation de l'appareil photo à l'aide d'un bouton</t>
   </si>
 </sst>
 </file>
@@ -693,10 +699,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,6 +750,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
@@ -781,6 +792,21 @@
       </c>
       <c r="E8" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
   <si>
     <t>1</t>
   </si>
@@ -101,19 +101,13 @@
   </si>
   <si>
     <t>Je dois pouvoir entrer les ingrédients ainsi que les étapes de ma recette</t>
-  </si>
-  <si>
-    <t>En tant qu'utilisateur, je souhaite pouvoir visionner la photo de ma recette dans la liste de celles-ci</t>
-  </si>
-  <si>
-    <t>utilisation de l'appareil photo à l'aide d'un bouton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,8 +121,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +148,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -157,16 +163,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -612,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="A1:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,48 +657,54 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -699,10 +715,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,23 +752,18 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -792,21 +803,6 @@
       </c>
       <c r="E8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="A3:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,17 +530,17 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -561,47 +561,47 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -622,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
